--- a/target/classes/ScenarioResults.xlsx
+++ b/target/classes/ScenarioResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="334">
   <si>
     <t>login-functionality;login-with-valid-username-and-password</t>
   </si>
@@ -1008,6 +1008,12 @@
   </si>
   <si>
     <t>2020-12-29 13_57_51</t>
+  </si>
+  <si>
+    <t>2020-12-29 13_59_30</t>
+  </si>
+  <si>
+    <t>2020-12-29 14_00_27</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1058,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D302"/>
+  <dimension ref="A1:D304"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5286,6 +5292,34 @@
         <v>3</v>
       </c>
     </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>98</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1</v>
+      </c>
+      <c r="C303" t="s">
+        <v>332</v>
+      </c>
+      <c r="D303" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>100</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1</v>
+      </c>
+      <c r="C304" t="s">
+        <v>333</v>
+      </c>
+      <c r="D304" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
